--- a/data/prematurity April 2023/prematurity rate.xlsx
+++ b/data/prematurity April 2023/prematurity rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\PDSR Q1 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\prematurity April 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92DE51F-0E2E-4546-9119-20C5C023FE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68631D17-57B9-4D9E-A0AA-BCC10CA0F71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{10FE694C-1BE5-4F10-A7BC-49E7AEC14106}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10FE694C-1BE5-4F10-A7BC-49E7AEC14106}"/>
   </bookViews>
   <sheets>
     <sheet name="Prematurity" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1092,6 +1092,30 @@
         <v>15.789473684210526</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A69" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B69" s="2">
+        <v>11.29032258064516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A70" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B70" s="2">
+        <v>15.887850467289718</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A71" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B71" s="2">
+        <v>10.387323943661972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
